--- a/spider/xlsx/oDA4r5OwK5Fi_GWPg9ZULIyhXSwg.xlsx
+++ b/spider/xlsx/oDA4r5OwK5Fi_GWPg9ZULIyhXSwg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>发票出纳总账目单</t>
   </si>
@@ -52,6 +52,42 @@
     <t>其他信息</t>
   </si>
   <si>
+    <t>021001900111</t>
+  </si>
+  <si>
+    <t>08662363</t>
+  </si>
+  <si>
+    <t>2019年02月02日</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>2019-03-10 00:25:02</t>
+  </si>
+  <si>
+    <t>个人</t>
+  </si>
+  <si>
+    <t>江苏圆周电子商务有限公司沈阳分公司</t>
+  </si>
+  <si>
+    <t>印刷品</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>*印刷品*Effective Java中文版（原书第3版）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>*印刷品*OReilly：Head First Java（中文版 第2版 涵盖Java5.0）</t>
+  </si>
+  <si>
     <t>021001800111</t>
   </si>
   <si>
@@ -64,19 +100,7 @@
     <t>69.25</t>
   </si>
   <si>
-    <t>2019-02-24 10:11:48</t>
-  </si>
-  <si>
-    <t>个人</t>
-  </si>
-  <si>
-    <t>江苏圆周电子商务有限公司沈阳分公司</t>
-  </si>
-  <si>
-    <t>印刷品</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>2019-03-09 17:07:41</t>
   </si>
   <si>
     <t>*印刷品*Python编程 从入门到实践</t>
@@ -450,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,37 +608,137 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="D7" s="2" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2">
-        <v>69.2</v>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2">
+        <v>211.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="18">
     <mergeCell ref="A1:H3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
